--- a/팀프로젝트/쇼핑몰_db설계도_1211.xlsx
+++ b/팀프로젝트/쇼핑몰_db설계도_1211.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
@@ -10,7 +10,7 @@
     <sheet name="출력용" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" iterate="1" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -1430,11 +1430,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월 &quot;dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2469,80 +2469,80 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2619,6 +2619,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4751,6 +4756,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4785,6 +4791,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4960,14 +4967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37:N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
@@ -4995,97 +5002,97 @@
     <col min="24" max="1025" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:24" ht="27" customHeight="1" thickBot="1">
-      <c r="B2" s="104" t="s">
+    <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="G2" s="122" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="G2" s="120" t="s">
         <v>342</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-    </row>
-    <row r="3" spans="2:24" ht="16.5" customHeight="1">
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-    </row>
-    <row r="4" spans="2:24" ht="16.5" customHeight="1">
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-    </row>
-    <row r="5" spans="2:24" ht="16.5" customHeight="1">
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+    </row>
+    <row r="3" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+    </row>
+    <row r="4" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+    </row>
+    <row r="5" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="2:24" ht="17.25">
+    <row r="6" spans="2:24" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="2:24" ht="17.25">
+    <row r="7" spans="2:24" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="2:24">
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -5094,12 +5101,12 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="2:24">
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -5108,8 +5115,8 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="2:24">
-      <c r="D11" s="120" t="s">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D11" s="117" t="s">
         <v>338</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -5124,11 +5131,11 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="2:24" ht="17.25">
-      <c r="D12" s="121" t="s">
+    <row r="12" spans="2:24" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="D12" s="118" t="s">
         <v>341</v>
       </c>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="118" t="s">
         <v>340</v>
       </c>
       <c r="M12" s="9" t="s">
@@ -5148,7 +5155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D13" s="18" t="s">
         <v>336</v>
       </c>
@@ -5173,7 +5180,7 @@
       </c>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="2:24" ht="17.25">
+    <row r="14" spans="2:24" ht="17.25" x14ac:dyDescent="0.2">
       <c r="D14" s="18" t="s">
         <v>337</v>
       </c>
@@ -5204,7 +5211,7 @@
       </c>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="J15" s="13" t="s">
@@ -5233,7 +5240,7 @@
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="J16" s="19" t="s">
         <v>28</v>
       </c>
@@ -5254,7 +5261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="3:30">
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="15"/>
       <c r="J17" s="19" t="s">
         <v>249</v>
@@ -5276,7 +5283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:30" ht="33">
+    <row r="18" spans="3:30" ht="33" x14ac:dyDescent="0.2">
       <c r="C18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="20"/>
@@ -5306,7 +5313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:30" ht="26.25">
+    <row r="19" spans="3:30" ht="26.25" x14ac:dyDescent="0.2">
       <c r="J19" s="8" t="s">
         <v>45</v>
       </c>
@@ -5329,7 +5336,7 @@
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
     </row>
-    <row r="20" spans="3:30">
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="J20" s="8" t="s">
         <v>47</v>
       </c>
@@ -5347,7 +5354,7 @@
       <c r="U20" s="15"/>
       <c r="V20" s="23"/>
     </row>
-    <row r="21" spans="3:30" ht="33">
+    <row r="21" spans="3:30" ht="33" x14ac:dyDescent="0.2">
       <c r="D21" s="15"/>
       <c r="J21" s="8" t="s">
         <v>49</v>
@@ -5366,7 +5373,7 @@
       <c r="U21" s="15"/>
       <c r="V21" s="23"/>
     </row>
-    <row r="22" spans="3:30" ht="17.25">
+    <row r="22" spans="3:30" ht="17.25" x14ac:dyDescent="0.2">
       <c r="D22" s="9" t="s">
         <v>339</v>
       </c>
@@ -5375,7 +5382,7 @@
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="3:30" ht="17.25">
+    <row r="23" spans="3:30" ht="17.25" x14ac:dyDescent="0.2">
       <c r="D23" s="24" t="s">
         <v>248</v>
       </c>
@@ -5407,7 +5414,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="3:30">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D24" s="28" t="s">
         <v>253</v>
       </c>
@@ -5439,7 +5446,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="3:30">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D25" s="34" t="s">
         <v>69</v>
       </c>
@@ -5471,8 +5478,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="3:30">
-      <c r="D26" s="107" t="s">
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="D26" s="104" t="s">
         <v>310</v>
       </c>
       <c r="E26" s="35" t="s">
@@ -5504,7 +5511,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="3:30">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="G27" s="36" t="s">
         <v>255</v>
       </c>
@@ -5540,14 +5547,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="3:30">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="G28" s="36" t="s">
         <v>256</v>
       </c>
       <c r="H28" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="M28" s="119" t="s">
+      <c r="M28" s="116" t="s">
         <v>329</v>
       </c>
       <c r="N28" s="37" t="s">
@@ -5576,7 +5583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="3:30" ht="17.25">
+    <row r="29" spans="3:30" ht="17.25" x14ac:dyDescent="0.2">
       <c r="D29" s="9" t="s">
         <v>311</v>
       </c>
@@ -5589,7 +5596,7 @@
       <c r="H29" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="M29" s="119" t="s">
+      <c r="M29" s="116" t="s">
         <v>328</v>
       </c>
       <c r="N29" s="37" t="s">
@@ -5614,7 +5621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="3:30">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D30" s="13" t="s">
         <v>312</v>
       </c>
@@ -5627,7 +5634,7 @@
       <c r="H30" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="M30" s="119" t="s">
+      <c r="M30" s="116" t="s">
         <v>333</v>
       </c>
       <c r="N30" s="37" t="s">
@@ -5642,7 +5649,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="3:30">
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D31" s="88" t="s">
         <v>313</v>
       </c>
@@ -5672,7 +5679,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="3:30">
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D32" s="17" t="s">
         <v>314</v>
       </c>
@@ -5702,7 +5709,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="4:27" ht="17.25" thickBot="1">
+    <row r="33" spans="4:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D33" s="17" t="s">
         <v>315</v>
       </c>
@@ -5732,7 +5739,7 @@
       </c>
       <c r="X33" s="55"/>
     </row>
-    <row r="34" spans="4:27" ht="18" thickTop="1" thickBot="1">
+    <row r="34" spans="4:27" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D34" s="17" t="s">
         <v>316</v>
       </c>
@@ -5757,7 +5764,7 @@
       </c>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="4:27" ht="17.25" thickTop="1">
+    <row r="35" spans="4:27" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D35" s="17" t="s">
         <v>317</v>
       </c>
@@ -5780,7 +5787,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="54"/>
     </row>
-    <row r="36" spans="4:27">
+    <row r="36" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D36" s="17" t="s">
         <v>318</v>
       </c>
@@ -5804,7 +5811,7 @@
       <c r="R36" s="47"/>
       <c r="S36" s="53"/>
     </row>
-    <row r="37" spans="4:27" s="1" customFormat="1">
+    <row r="37" spans="4:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D37" s="17" t="s">
         <v>319</v>
       </c>
@@ -5831,7 +5838,7 @@
       <c r="T37" s="15"/>
       <c r="U37" s="47"/>
     </row>
-    <row r="38" spans="4:27" s="1" customFormat="1">
+    <row r="38" spans="4:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F38" s="15"/>
       <c r="G38" s="18" t="s">
         <v>267</v>
@@ -5848,7 +5855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="4:27" s="1" customFormat="1">
+    <row r="39" spans="4:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G39" s="18" t="s">
         <v>269</v>
       </c>
@@ -5874,7 +5881,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="4:27" s="1" customFormat="1" ht="17.25" thickBot="1">
+    <row r="40" spans="4:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M40" s="58" t="s">
         <v>134</v>
       </c>
@@ -5903,8 +5910,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="4:27" s="1" customFormat="1" ht="18" thickTop="1">
-      <c r="D41" s="108" t="s">
+    <row r="41" spans="4:27" s="1" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="105" t="s">
         <v>320</v>
       </c>
       <c r="E41" s="62" t="s">
@@ -5923,7 +5930,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="4:27" s="1" customFormat="1" ht="17.25">
+    <row r="42" spans="4:27" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="D42" s="13" t="s">
         <v>251</v>
       </c>
@@ -5949,7 +5956,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="4:27" s="1" customFormat="1">
+    <row r="43" spans="4:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D43" s="13" t="s">
         <v>252</v>
       </c>
@@ -5969,7 +5976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="4:27" s="1" customFormat="1" ht="17.25" thickBot="1">
+    <row r="44" spans="4:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D44" s="8" t="s">
         <v>145</v>
       </c>
@@ -5989,7 +5996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="4:27" s="1" customFormat="1">
+    <row r="45" spans="4:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D45" s="8" t="s">
         <v>149</v>
       </c>
@@ -6008,10 +6015,10 @@
       <c r="N45" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="V45" s="109"/>
-      <c r="W45" s="110"/>
-    </row>
-    <row r="46" spans="4:27" s="1" customFormat="1">
+      <c r="V45" s="106"/>
+      <c r="W45" s="107"/>
+    </row>
+    <row r="46" spans="4:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D46" s="8" t="s">
         <v>154</v>
       </c>
@@ -6024,10 +6031,10 @@
       <c r="H46" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V46" s="111" t="s">
+      <c r="V46" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="W46" s="112" t="s">
+      <c r="W46" s="109" t="s">
         <v>300</v>
       </c>
       <c r="Y46" s="1">
@@ -6040,17 +6047,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="4:27" s="1" customFormat="1">
+    <row r="47" spans="4:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G47" s="8" t="s">
         <v>155</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="V47" s="111" t="s">
+      <c r="V47" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="W47" s="112" t="s">
+      <c r="W47" s="109" t="s">
         <v>301</v>
       </c>
       <c r="Y47" s="1">
@@ -6063,15 +6070,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="48" spans="4:27" s="1" customFormat="1">
+    <row r="48" spans="4:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G48" s="18" t="s">
         <v>259</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="V48" s="113"/>
-      <c r="W48" s="114" t="s">
+      <c r="V48" s="110"/>
+      <c r="W48" s="111" t="s">
         <v>302</v>
       </c>
       <c r="Y48" s="1">
@@ -6084,50 +6091,50 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="7:24" s="1" customFormat="1">
+    <row r="49" spans="7:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G49" s="18" t="s">
         <v>260</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="V49" s="115"/>
-      <c r="W49" s="116"/>
-    </row>
-    <row r="50" spans="7:24">
+      <c r="V49" s="112"/>
+      <c r="W49" s="113"/>
+    </row>
+    <row r="50" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G50" s="18" t="s">
         <v>261</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="V50" s="115"/>
-      <c r="W50" s="116"/>
-    </row>
-    <row r="51" spans="7:24">
-      <c r="V51" s="115"/>
-      <c r="W51" s="116"/>
+      <c r="V50" s="112"/>
+      <c r="W50" s="113"/>
+    </row>
+    <row r="51" spans="7:24" x14ac:dyDescent="0.2">
+      <c r="V51" s="112"/>
+      <c r="W51" s="113"/>
       <c r="X51" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="52" spans="7:24">
-      <c r="V52" s="115"/>
-      <c r="W52" s="116"/>
-    </row>
-    <row r="53" spans="7:24">
-      <c r="V53" s="111" t="s">
+    <row r="52" spans="7:24" x14ac:dyDescent="0.2">
+      <c r="V52" s="112"/>
+      <c r="W52" s="113"/>
+    </row>
+    <row r="53" spans="7:24" x14ac:dyDescent="0.2">
+      <c r="V53" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="W53" s="112" t="s">
+      <c r="W53" s="109" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="7:24" ht="17.25" thickBot="1">
-      <c r="V54" s="117" t="s">
+    <row r="54" spans="7:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V54" s="114" t="s">
         <v>290</v>
       </c>
-      <c r="W54" s="118" t="s">
+      <c r="W54" s="115" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6144,14 +6151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X95"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="B2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
@@ -6179,14 +6186,14 @@
     <col min="24" max="1025" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="2:24" ht="17.25" customHeight="1">
+    <row r="2" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -6199,7 +6206,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -6209,7 +6216,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="2:24" ht="17.25" customHeight="1">
+    <row r="4" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="F4" s="7"/>
@@ -6221,7 +6228,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:24" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
         <v>4</v>
@@ -6234,7 +6241,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="2:24" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="2:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
         <v>5</v>
@@ -6253,7 +6260,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="2:24" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="2:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="66" t="s">
         <v>162</v>
       </c>
@@ -6277,7 +6284,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="2:24" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="2:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="63" t="s">
         <v>163</v>
       </c>
@@ -6301,7 +6308,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="2:24" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="2:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="63" t="s">
         <v>143</v>
       </c>
@@ -6328,7 +6335,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="63" t="s">
         <v>164</v>
       </c>
@@ -6364,7 +6371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="2:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="63" t="s">
         <v>13</v>
       </c>
@@ -6402,7 +6409,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="16.5" customHeight="1">
+    <row r="12" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="63" t="s">
         <v>170</v>
       </c>
@@ -6420,16 +6427,16 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="2:24" ht="16.5" customHeight="1">
+    <row r="13" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="63" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="121" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22" t="s">
         <v>174</v>
@@ -6439,15 +6446,15 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="2:24" ht="16.5" customHeight="1">
+    <row r="14" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="63" t="s">
         <v>175</v>
       </c>
       <c r="C14" s="15"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="s">
         <v>52</v>
@@ -6458,7 +6465,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="21"/>
     </row>
-    <row r="15" spans="2:24" ht="26.25" customHeight="1">
+    <row r="15" spans="2:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="61" t="s">
         <v>176</v>
       </c>
@@ -6466,7 +6473,7 @@
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
     </row>
-    <row r="16" spans="2:24" ht="16.5" customHeight="1">
+    <row r="16" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="61" t="s">
         <v>177</v>
       </c>
@@ -6475,7 +6482,7 @@
       <c r="U16" s="15"/>
       <c r="V16" s="23"/>
     </row>
-    <row r="17" spans="2:24" ht="16.5" customHeight="1">
+    <row r="17" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="61" t="s">
         <v>178</v>
       </c>
@@ -6484,7 +6491,7 @@
       <c r="U17" s="15"/>
       <c r="V17" s="23"/>
     </row>
-    <row r="18" spans="2:24" ht="17.25" customHeight="1">
+    <row r="18" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>179</v>
       </c>
@@ -6496,7 +6503,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:24" ht="16.5" customHeight="1">
+    <row r="19" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="24" t="s">
         <v>55</v>
       </c>
@@ -6522,7 +6529,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:24" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="2:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="28" t="s">
         <v>64</v>
       </c>
@@ -6555,7 +6562,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="2:24" ht="16.5" customHeight="1">
+    <row r="21" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="34" t="s">
         <v>69</v>
       </c>
@@ -6588,7 +6595,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="2:24" ht="16.5" customHeight="1">
+    <row r="22" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="34" t="s">
         <v>77</v>
       </c>
@@ -6619,7 +6626,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:24">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="G23" s="73" t="s">
         <v>87</v>
       </c>
@@ -6643,7 +6650,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="16.5" customHeight="1">
+    <row r="24" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="73" t="s">
         <v>95</v>
       </c>
@@ -6665,7 +6672,7 @@
       </c>
       <c r="V24" s="15"/>
     </row>
-    <row r="25" spans="2:24" ht="17.25" customHeight="1">
+    <row r="25" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G25" s="73" t="s">
         <v>103</v>
       </c>
@@ -6687,7 +6694,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="2:24" ht="15.75" customHeight="1">
+    <row r="26" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G26" s="73" t="s">
         <v>109</v>
       </c>
@@ -6706,7 +6713,7 @@
       </c>
       <c r="V26" s="15"/>
     </row>
-    <row r="27" spans="2:24">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="G27" s="79" t="s">
         <v>112</v>
       </c>
@@ -6727,7 +6734,7 @@
       </c>
       <c r="V27" s="15"/>
     </row>
-    <row r="28" spans="2:24">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F28" s="15"/>
       <c r="L28" s="8"/>
       <c r="M28" s="10" t="s">
@@ -6744,7 +6751,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="2:24" ht="33">
+    <row r="29" spans="2:24" ht="33" x14ac:dyDescent="0.2">
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -6764,7 +6771,7 @@
       <c r="W29" s="15"/>
       <c r="X29" s="55"/>
     </row>
-    <row r="30" spans="2:24" ht="33">
+    <row r="30" spans="2:24" ht="33" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
         <v>102</v>
@@ -6790,7 +6797,7 @@
       <c r="W30" s="23"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="2:24">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="13" t="s">
         <v>108</v>
@@ -6805,7 +6812,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="54"/>
     </row>
-    <row r="32" spans="2:24">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="19"/>
       <c r="C32" s="19" t="s">
         <v>29</v>
@@ -6824,7 +6831,7 @@
       <c r="R32" s="47"/>
       <c r="S32" s="53"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
         <v>35</v>
@@ -6846,7 +6853,7 @@
       <c r="T33" s="15"/>
       <c r="U33" s="47"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
         <v>121</v>
@@ -6863,7 +6870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
         <v>33</v>
@@ -6874,7 +6881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
         <v>127</v>
@@ -6890,7 +6897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
         <v>130</v>
@@ -6906,7 +6913,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
         <v>133</v>
@@ -6922,7 +6929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E39" s="10" t="s">
         <v>147</v>
       </c>
@@ -6931,7 +6938,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E40" s="10" t="s">
         <v>151</v>
       </c>
@@ -6940,7 +6947,7 @@
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="2:21">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E41" s="8" t="s">
         <v>155</v>
       </c>
@@ -6949,7 +6956,7 @@
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E42" s="10" t="s">
         <v>157</v>
       </c>
@@ -6966,7 +6973,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="2:21" ht="33">
+    <row r="43" spans="2:21" ht="33" x14ac:dyDescent="0.2">
       <c r="E43" s="10" t="s">
         <v>159</v>
       </c>
@@ -6981,7 +6988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E44" s="10" t="s">
         <v>160</v>
       </c>
@@ -6999,7 +7006,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="J45" s="88"/>
       <c r="K45" s="19" t="s">
         <v>17</v>
@@ -7011,7 +7018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:21" ht="33" customHeight="1">
+    <row r="46" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="10"/>
       <c r="K46" s="8" t="s">
         <v>33</v>
@@ -7029,7 +7036,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="J47" s="10"/>
       <c r="K47" s="8" t="s">
         <v>46</v>
@@ -7043,7 +7050,7 @@
       </c>
       <c r="P47" s="15"/>
     </row>
-    <row r="48" spans="2:21" ht="16.5" customHeight="1">
+    <row r="48" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="10"/>
       <c r="K48" s="8" t="s">
         <v>48</v>
@@ -7052,7 +7059,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="5:21" ht="16.5" customHeight="1">
+    <row r="49" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="10"/>
       <c r="K49" s="8" t="s">
         <v>205</v>
@@ -7061,7 +7068,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="5:21">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E51" s="61" t="s">
         <v>136</v>
       </c>
@@ -7069,47 +7076,47 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="5:21">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E52" s="14"/>
       <c r="F52" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="5:21">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E53" s="14"/>
       <c r="F53" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="5:21">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E54" s="10"/>
       <c r="F54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="5:21">
+    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E55" s="10"/>
       <c r="F55" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="5:21">
+    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E56" s="10"/>
       <c r="F56" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="5:21" ht="379.5" customHeight="1">
-      <c r="R60" s="106" t="s">
+    <row r="60" spans="5:21" ht="379.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R60" s="122" t="s">
         <v>207</v>
       </c>
-      <c r="S60" s="106"/>
-      <c r="T60" s="106"/>
+      <c r="S60" s="122"/>
+      <c r="T60" s="122"/>
       <c r="U60" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="2:18" ht="16.5" customHeight="1">
+    <row r="72" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="90" t="s">
         <v>209</v>
       </c>
@@ -7127,7 +7134,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="2:18" ht="16.5" customHeight="1">
+    <row r="73" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10" t="s">
         <v>214</v>
       </c>
@@ -7137,7 +7144,7 @@
       <c r="F73" s="67"/>
       <c r="G73" s="10"/>
     </row>
-    <row r="74" spans="2:18" ht="16.5" customHeight="1">
+    <row r="74" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
@@ -7149,7 +7156,7 @@
       <c r="F74" s="67"/>
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="2:18" ht="16.5" customHeight="1">
+    <row r="75" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -7157,7 +7164,7 @@
       <c r="F75" s="67"/>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="2:18" ht="16.5" customHeight="1">
+    <row r="76" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -7167,12 +7174,12 @@
       </c>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="2:18" ht="16.5" customHeight="1">
+    <row r="77" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="2:18" ht="16.5" customHeight="1">
+    <row r="78" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="1" t="s">
         <v>219</v>
       </c>
@@ -7183,18 +7190,18 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="2:18">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="M79" s="1"/>
       <c r="O79" s="15"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" spans="2:18">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="M80" s="92" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="2:22">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
       <c r="M81" s="13" t="s">
         <v>222</v>
       </c>
@@ -7211,7 +7218,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="2:22">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
       <c r="M82" s="14">
         <v>111</v>
       </c>
@@ -7230,7 +7237,7 @@
       <c r="R82" s="15"/>
       <c r="S82" s="15"/>
     </row>
-    <row r="83" spans="2:22" ht="16.5" customHeight="1">
+    <row r="83" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="s">
         <v>229</v>
       </c>
@@ -7239,7 +7246,7 @@
       </c>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="2:22" ht="16.5" customHeight="1">
+    <row r="84" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>148</v>
       </c>
@@ -7253,7 +7260,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="2:22" ht="16.5" customHeight="1">
+    <row r="85" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
         <v>234</v>
       </c>
@@ -7287,7 +7294,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="2:22" ht="16.5" customHeight="1">
+    <row r="86" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D86" s="1" t="s">
         <v>237</v>
       </c>
@@ -7318,7 +7325,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="2:22" ht="16.5" customHeight="1">
+    <row r="87" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="1" t="s">
         <v>240</v>
       </c>
@@ -7349,7 +7356,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="2:22" ht="16.5" customHeight="1">
+    <row r="88" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>242</v>
       </c>
@@ -7378,17 +7385,17 @@
         <v>239</v>
       </c>
     </row>
-    <row r="89" spans="2:22">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N89" s="15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="91" spans="2:22">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
       <c r="M91" s="92" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="92" spans="2:22">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
       <c r="M92" s="13" t="s">
         <v>222</v>
       </c>
@@ -7402,7 +7409,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="2:22">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
       <c r="M93" s="14">
         <v>111</v>
       </c>
@@ -7416,7 +7423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="2:22">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
       <c r="M94" s="14">
         <v>111</v>
       </c>
@@ -7430,7 +7437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="2:22">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
       <c r="M95" s="14">
         <v>111</v>
       </c>
